--- a/Load/ontology/Gates/SCORE_SmCohort/SCORE_Sm_Cohort_variableMapWorking.xlsx
+++ b/Load/ontology/Gates/SCORE_SmCohort/SCORE_Sm_Cohort_variableMapWorking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loaner-user/Box/sandbox/SCORE Sm Cohort/R Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loaner-user/Documents/GitHub/ApiCommonData/Load/ontology/Gates/SCORE_SmCohort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4846D38E-1366-0449-A097-FA2B2F46CD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A746CE-BB91-BA48-A5B6-3FA87A160B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="4620" windowWidth="23920" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="2800" windowWidth="26020" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,20 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{3867446C-0F30-5E4F-B682-C153BB4B2968}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Is this the parent of asc_binary?
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D9" authorId="0" shapeId="0" xr:uid="{2FB39342-ED08-BE40-BBD2-1E126693599E}">
       <text>
         <r>
@@ -54,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="376">
   <si>
     <t>colOrder</t>
   </si>
@@ -1052,9 +1066,6 @@
     <t>participant</t>
   </si>
   <si>
-    <t>EUPATH_0000452</t>
-  </si>
-  <si>
     <t>EUPATH_0011797</t>
   </si>
   <si>
@@ -1083,13 +1094,115 @@
   </si>
   <si>
     <t>EUPATH_0000307</t>
+  </si>
+  <si>
+    <t>EUPATH_0010607</t>
+  </si>
+  <si>
+    <t>EUPATH_0030119</t>
+  </si>
+  <si>
+    <t>Ascaris in stool</t>
+  </si>
+  <si>
+    <t>EUPATH_0000047</t>
+  </si>
+  <si>
+    <t>EUPATH_0010075</t>
+  </si>
+  <si>
+    <t>EUPATH_0000649</t>
+  </si>
+  <si>
+    <t>Anthropometry</t>
+  </si>
+  <si>
+    <t>EUPATH_0010734</t>
+  </si>
+  <si>
+    <t>Hookworm, by microscopy</t>
+  </si>
+  <si>
+    <t>Ancylostomatoidea in stool</t>
+  </si>
+  <si>
+    <t>EUPATH_0030118</t>
+  </si>
+  <si>
+    <t>Hemoglobin (g/dL)</t>
+  </si>
+  <si>
+    <t>EUPATH_0011795</t>
+  </si>
+  <si>
+    <t>Blood Test</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>EUPATH_0000090</t>
+  </si>
+  <si>
+    <t>Mean Schistosoma mansoni count eggs per gram, by microscopy</t>
+  </si>
+  <si>
+    <t>EUPATH_0030024</t>
+  </si>
+  <si>
+    <t>Mean Schistosoma mansoni eggs per gram, from all samples for this study participant</t>
+  </si>
+  <si>
+    <t>Schistosoma in stool aggregate data</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0030116</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni, by microscopy</t>
+  </si>
+  <si>
+    <t>EUPATH_0030121</t>
+  </si>
+  <si>
+    <t>EUPATH_0030025</t>
+  </si>
+  <si>
+    <t>EUPATH_0030032</t>
+  </si>
+  <si>
+    <t>Any Trichuris trichiura, by microscopy</t>
+  </si>
+  <si>
+    <t>Trichuris in stool aggregate data</t>
+  </si>
+  <si>
+    <t>EUPATH_0030029</t>
+  </si>
+  <si>
+    <t>Village code</t>
+  </si>
+  <si>
+    <t>EUPATH_0030004</t>
+  </si>
+  <si>
+    <t>ENVO_01000773</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>EUPATH:0000732</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1118,6 +1231,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1128,7 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1154,9 +1273,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,10 +1576,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1587,7 @@
     <col min="1" max="3" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="2"/>
     <col min="8" max="8" width="17.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
@@ -1560,7 +1681,7 @@
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>330</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1713,8 +1834,8 @@
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
+      <c r="F5" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>319</v>
@@ -1726,10 +1847,10 @@
         <v>321</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>344</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>35</v>
@@ -1779,7 +1900,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>19</v>
@@ -1835,7 +1956,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>19</v>
@@ -1906,7 +2027,7 @@
         <v>50</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>19</v>
@@ -2150,28 +2271,28 @@
         <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>345</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>19</v>
@@ -2203,10 +2324,10 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>19</v>
@@ -2215,16 +2336,16 @@
         <v>330</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>19</v>
@@ -2255,11 +2376,11 @@
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>19</v>
+      <c r="F15" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>350</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>19</v>
@@ -2268,10 +2389,10 @@
         <v>321</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>19</v>
+        <v>351</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>79</v>
@@ -2280,7 +2401,7 @@
         <v>36</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>19</v>
@@ -2810,7 +2931,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>19</v>
@@ -2819,7 +2940,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>19</v>
@@ -2834,7 +2955,7 @@
         <v>36</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>19</v>
@@ -3008,7 +3129,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>136</v>
       </c>
@@ -3025,28 +3146,28 @@
         <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>138</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>19</v>
@@ -3826,22 +3947,22 @@
         <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="K44" s="2" t="s">
-        <v>19</v>
+        <v>365</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>201</v>
@@ -3850,7 +3971,7 @@
         <v>36</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>19</v>
@@ -3891,14 +4012,10 @@
         <v>19</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J45" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="2" t="s">
         <v>205</v>
       </c>
@@ -3944,14 +4061,10 @@
         <v>19</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
       <c r="N46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3994,14 +4107,10 @@
         <v>19</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J47" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
       <c r="N47" s="2" t="s">
         <v>19</v>
       </c>
@@ -4044,14 +4153,10 @@
         <v>19</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J48" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
       <c r="N48" s="2" t="s">
         <v>19</v>
       </c>
@@ -4094,14 +4199,10 @@
         <v>19</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J49" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
       <c r="N49" s="2" t="s">
         <v>19</v>
       </c>
@@ -4144,14 +4245,10 @@
         <v>19</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J50" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
       <c r="N50" s="2" t="s">
         <v>19</v>
       </c>
@@ -4789,7 +4886,7 @@
         <v>21</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>271</v>
@@ -4801,10 +4898,10 @@
         <v>331</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>271</v>
@@ -4813,7 +4910,7 @@
         <v>272</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>19</v>
@@ -4845,7 +4942,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>276</v>
@@ -4857,10 +4954,10 @@
         <v>331</v>
       </c>
       <c r="J63" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>276</v>
@@ -4869,7 +4966,7 @@
         <v>277</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>19</v>
@@ -5007,22 +5104,22 @@
         <v>21</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>19</v>
+        <v>366</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>289</v>
@@ -5031,7 +5128,7 @@
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>19</v>
@@ -5062,28 +5159,29 @@
       <c r="E67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="F67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="K67" t="s">
+      <c r="J67" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="K67" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L67" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="M67" s="5"/>
+      <c r="N67" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O67" s="2" t="s">
@@ -5116,10 +5214,10 @@
         <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>19</v>
@@ -5140,7 +5238,7 @@
         <v>298</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>19</v>
@@ -5172,10 +5270,10 @@
         <v>21</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>19</v>
@@ -5193,7 +5291,7 @@
         <v>302</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>19</v>
@@ -5245,9 +5343,6 @@
       <c r="L70" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="O70" s="2" t="s">
         <v>19</v>
       </c>
@@ -5278,10 +5373,10 @@
         <v>21</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>19</v>
@@ -5290,16 +5385,16 @@
         <v>330</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>310</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>19</v>
